--- a/Pokemon_Server/data/pkm_conquest_warrior_skills.xlsx
+++ b/Pokemon_Server/data/pkm_conquest_warrior_skills.xlsx
@@ -271,9 +271,6 @@
     <t>father-figure</t>
   </si>
   <si>
-    <t>Viper's Bite</t>
-  </si>
-  <si>
     <t>vipers-bite</t>
   </si>
   <si>
@@ -401,6 +398,9 @@
   </si>
   <si>
     <t>sacrifice</t>
+  </si>
+  <si>
+    <t>Viper''s Bite</t>
   </si>
 </sst>
 </file>
@@ -1225,10 +1225,10 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
+        <v>128</v>
+      </c>
+      <c r="C43" t="s">
         <v>85</v>
-      </c>
-      <c r="C43" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -1236,10 +1236,10 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
+        <v>86</v>
+      </c>
+      <c r="C44" t="s">
         <v>87</v>
-      </c>
-      <c r="C44" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -1247,10 +1247,10 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
+        <v>88</v>
+      </c>
+      <c r="C45" t="s">
         <v>89</v>
-      </c>
-      <c r="C45" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -1258,10 +1258,10 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
+        <v>90</v>
+      </c>
+      <c r="C46" t="s">
         <v>91</v>
-      </c>
-      <c r="C46" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -1269,10 +1269,10 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
+        <v>92</v>
+      </c>
+      <c r="C47" t="s">
         <v>93</v>
-      </c>
-      <c r="C47" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -1280,10 +1280,10 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
+        <v>94</v>
+      </c>
+      <c r="C48" t="s">
         <v>95</v>
-      </c>
-      <c r="C48" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -1291,10 +1291,10 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
+        <v>96</v>
+      </c>
+      <c r="C49" t="s">
         <v>97</v>
-      </c>
-      <c r="C49" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -1302,10 +1302,10 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
+        <v>98</v>
+      </c>
+      <c r="C50" t="s">
         <v>99</v>
-      </c>
-      <c r="C50" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
@@ -1313,10 +1313,10 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
+        <v>100</v>
+      </c>
+      <c r="C51" t="s">
         <v>101</v>
-      </c>
-      <c r="C51" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
@@ -1324,10 +1324,10 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
+        <v>102</v>
+      </c>
+      <c r="C52" t="s">
         <v>103</v>
-      </c>
-      <c r="C52" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
@@ -1335,10 +1335,10 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
+        <v>104</v>
+      </c>
+      <c r="C53" t="s">
         <v>105</v>
-      </c>
-      <c r="C53" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
@@ -1346,10 +1346,10 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
+        <v>106</v>
+      </c>
+      <c r="C54" t="s">
         <v>107</v>
-      </c>
-      <c r="C54" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
@@ -1357,10 +1357,10 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
+        <v>108</v>
+      </c>
+      <c r="C55" t="s">
         <v>109</v>
-      </c>
-      <c r="C55" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
@@ -1368,10 +1368,10 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
+        <v>110</v>
+      </c>
+      <c r="C56" t="s">
         <v>111</v>
-      </c>
-      <c r="C56" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
@@ -1379,10 +1379,10 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
+        <v>112</v>
+      </c>
+      <c r="C57" t="s">
         <v>113</v>
-      </c>
-      <c r="C57" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
@@ -1390,10 +1390,10 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
+        <v>114</v>
+      </c>
+      <c r="C58" t="s">
         <v>115</v>
-      </c>
-      <c r="C58" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
@@ -1401,10 +1401,10 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
+        <v>116</v>
+      </c>
+      <c r="C59" t="s">
         <v>117</v>
-      </c>
-      <c r="C59" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
@@ -1412,10 +1412,10 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
+        <v>118</v>
+      </c>
+      <c r="C60" t="s">
         <v>119</v>
-      </c>
-      <c r="C60" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
@@ -1423,10 +1423,10 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
+        <v>120</v>
+      </c>
+      <c r="C61" t="s">
         <v>121</v>
-      </c>
-      <c r="C61" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
@@ -1434,10 +1434,10 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
+        <v>122</v>
+      </c>
+      <c r="C62" t="s">
         <v>123</v>
-      </c>
-      <c r="C62" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
@@ -1445,10 +1445,10 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
+        <v>124</v>
+      </c>
+      <c r="C63" t="s">
         <v>125</v>
-      </c>
-      <c r="C63" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
@@ -1456,10 +1456,10 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
+        <v>126</v>
+      </c>
+      <c r="C64" t="s">
         <v>127</v>
-      </c>
-      <c r="C64" t="s">
-        <v>128</v>
       </c>
     </row>
   </sheetData>
